--- a/QuantLibXL/Data/XLS/080_Bond/010_BondDataBase/EUR_Digital_XS0194140785.xlsx
+++ b/QuantLibXL/Data/XLS/080_Bond/010_BondDataBase/EUR_Digital_XS0194140785.xlsx
@@ -4,15 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="885" yWindow="-90" windowWidth="30585" windowHeight="4485"/>
+    <workbookView xWindow="885" yWindow="-90" windowWidth="29040" windowHeight="4485"/>
   </bookViews>
   <sheets>
     <sheet name="General Settings" sheetId="1" r:id="rId1"/>
     <sheet name="Object Creation" sheetId="2" r:id="rId2"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId3"/>
-  </externalReferences>
   <definedNames>
     <definedName name="BondType">'Object Creation'!$D$3</definedName>
     <definedName name="Calendar">'Object Creation'!$D$8</definedName>
@@ -50,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="76">
   <si>
     <t>General Settings</t>
   </si>
@@ -275,6 +272,9 @@
   </si>
   <si>
     <t>Backward</t>
+  </si>
+  <si>
+    <t>C:\Users\erik\junk\</t>
   </si>
 </sst>
 </file>
@@ -292,7 +292,7 @@
     <numFmt numFmtId="170" formatCode="ddd\,\ d\-mmm\-yyyy"/>
     <numFmt numFmtId="171" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -817,22 +817,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Feuil1"/>
-    </sheetNames>
-    <definedNames>
-      <definedName name="qlSerializationPath"/>
-    </definedNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1129,7 +1113,7 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8" defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultColWidth="8" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="4.28515625" style="1" customWidth="1"/>
@@ -1141,13 +1125,13 @@
     <col min="8" max="16384" width="8" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13.5" thickBot="1">
+    <row r="1" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="str">
         <f>_xll.qlxlVersion(TRUE,Trigger)</f>
         <v>QuantLibXL 1.2.0 - MS VC++ 9.0 - Multithreaded Dynamic Runtime library - Release Configuration - Jan 18 2013 12:11:06</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="4" customFormat="1" ht="15.75">
+    <row r="2" spans="1:5" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="51" t="s">
         <v>0</v>
@@ -1156,14 +1140,14 @@
       <c r="D2" s="52"/>
       <c r="E2" s="53"/>
     </row>
-    <row r="3" spans="1:5" s="4" customFormat="1" ht="12.75">
+    <row r="3" spans="1:5" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="5"/>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
       <c r="E3" s="7"/>
     </row>
-    <row r="4" spans="1:5" s="4" customFormat="1" ht="12.75">
+    <row r="4" spans="1:5" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="5"/>
       <c r="C4" s="8" t="s">
@@ -1172,7 +1156,7 @@
       <c r="D4" s="9"/>
       <c r="E4" s="10"/>
     </row>
-    <row r="5" spans="1:5" s="4" customFormat="1" ht="12.75">
+    <row r="5" spans="1:5" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="5"/>
       <c r="C5" s="8" t="s">
@@ -1183,7 +1167,7 @@
       </c>
       <c r="E5" s="10"/>
     </row>
-    <row r="6" spans="1:5" s="4" customFormat="1" ht="12.75">
+    <row r="6" spans="1:5" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="5"/>
       <c r="C6" s="8" t="s">
@@ -1194,7 +1178,7 @@
       </c>
       <c r="E6" s="10"/>
     </row>
-    <row r="7" spans="1:5" s="4" customFormat="1" ht="12.75">
+    <row r="7" spans="1:5" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="5"/>
       <c r="C7" s="8" t="s">
@@ -1205,19 +1189,18 @@
       </c>
       <c r="E7" s="10"/>
     </row>
-    <row r="8" spans="1:5" s="4" customFormat="1" ht="12.75">
+    <row r="8" spans="1:5" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="5"/>
       <c r="C8" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="11" t="str">
-        <f>[1]!qlSerializationPath(Trigger)</f>
-        <v>\\srv0001\risorse\WorkGroup\IMI_Workbooks\Production\QLXL_R01030x\Data\XML\080_Bond\010_BondDataBase\</v>
+      <c r="D8" s="11" t="s">
+        <v>75</v>
       </c>
       <c r="E8" s="10"/>
     </row>
-    <row r="9" spans="1:5" s="4" customFormat="1" ht="12.75">
+    <row r="9" spans="1:5" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="5"/>
       <c r="C9" s="8" t="s">
@@ -1228,7 +1211,7 @@
       </c>
       <c r="E9" s="10"/>
     </row>
-    <row r="10" spans="1:5" s="4" customFormat="1" ht="13.5" thickBot="1">
+    <row r="10" spans="1:5" s="4" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="13"/>
       <c r="C10" s="14"/>
@@ -1255,7 +1238,7 @@
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.140625" style="4" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="4"/>
@@ -1287,8 +1270,8 @@
     <col min="31" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:30" s="1" customFormat="1" ht="12" thickBot="1"/>
-    <row r="2" spans="2:30" s="1" customFormat="1">
+    <row r="1" spans="2:30" s="1" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:30" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B2" s="16"/>
       <c r="C2" s="17"/>
       <c r="D2" s="18"/>
@@ -1319,7 +1302,7 @@
       <c r="AC2" s="18"/>
       <c r="AD2" s="19"/>
     </row>
-    <row r="3" spans="2:30" s="1" customFormat="1">
+    <row r="3" spans="2:30" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="20"/>
       <c r="C3" s="23" t="s">
         <v>9</v>
@@ -1362,7 +1345,7 @@
       <c r="AC3" s="21"/>
       <c r="AD3" s="22"/>
     </row>
-    <row r="4" spans="2:30" s="1" customFormat="1">
+    <row r="4" spans="2:30" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="20"/>
       <c r="C4" s="23" t="s">
         <v>37</v>
@@ -1409,7 +1392,7 @@
       <c r="AC4" s="21"/>
       <c r="AD4" s="22"/>
     </row>
-    <row r="5" spans="2:30" s="1" customFormat="1">
+    <row r="5" spans="2:30" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="20"/>
       <c r="C5" s="23" t="s">
         <v>17</v>
@@ -1456,7 +1439,7 @@
       <c r="AC5" s="21"/>
       <c r="AD5" s="22"/>
     </row>
-    <row r="6" spans="2:30" s="1" customFormat="1">
+    <row r="6" spans="2:30" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="20"/>
       <c r="C6" s="23" t="s">
         <v>7</v>
@@ -1495,7 +1478,7 @@
       <c r="AC6" s="21"/>
       <c r="AD6" s="22"/>
     </row>
-    <row r="7" spans="2:30" s="1" customFormat="1">
+    <row r="7" spans="2:30" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="20"/>
       <c r="C7" s="23" t="s">
         <v>25</v>
@@ -1534,7 +1517,7 @@
       <c r="AC7" s="21"/>
       <c r="AD7" s="22"/>
     </row>
-    <row r="8" spans="2:30" s="1" customFormat="1">
+    <row r="8" spans="2:30" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="20"/>
       <c r="C8" s="40" t="s">
         <v>12</v>
@@ -1573,7 +1556,7 @@
       <c r="AC8" s="21"/>
       <c r="AD8" s="22"/>
     </row>
-    <row r="9" spans="2:30" s="1" customFormat="1">
+    <row r="9" spans="2:30" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="20"/>
       <c r="C9" s="40" t="s">
         <v>18</v>
@@ -1612,7 +1595,7 @@
       <c r="AC9" s="21"/>
       <c r="AD9" s="22"/>
     </row>
-    <row r="10" spans="2:30" s="1" customFormat="1">
+    <row r="10" spans="2:30" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="20"/>
       <c r="C10" s="40" t="s">
         <v>10</v>
@@ -1651,7 +1634,7 @@
       <c r="AC10" s="21"/>
       <c r="AD10" s="22"/>
     </row>
-    <row r="11" spans="2:30" s="1" customFormat="1">
+    <row r="11" spans="2:30" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="20"/>
       <c r="C11" s="40" t="s">
         <v>11</v>
@@ -1690,7 +1673,7 @@
       <c r="AC11" s="21"/>
       <c r="AD11" s="22"/>
     </row>
-    <row r="12" spans="2:30" s="1" customFormat="1">
+    <row r="12" spans="2:30" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="20"/>
       <c r="C12" s="40" t="s">
         <v>38</v>
@@ -1730,7 +1713,7 @@
       <c r="AC12" s="21"/>
       <c r="AD12" s="22"/>
     </row>
-    <row r="13" spans="2:30" s="1" customFormat="1">
+    <row r="13" spans="2:30" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="20"/>
       <c r="C13" s="40" t="s">
         <v>39</v>
@@ -1770,7 +1753,7 @@
       <c r="AC13" s="21"/>
       <c r="AD13" s="22"/>
     </row>
-    <row r="14" spans="2:30" s="1" customFormat="1">
+    <row r="14" spans="2:30" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="20"/>
       <c r="C14" s="40" t="s">
         <v>34</v>
@@ -1805,7 +1788,7 @@
       <c r="AC14" s="21"/>
       <c r="AD14" s="22"/>
     </row>
-    <row r="15" spans="2:30" s="1" customFormat="1">
+    <row r="15" spans="2:30" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="20"/>
       <c r="C15" s="40" t="s">
         <v>40</v>
@@ -1840,7 +1823,7 @@
       <c r="AC15" s="21"/>
       <c r="AD15" s="22"/>
     </row>
-    <row r="16" spans="2:30" s="1" customFormat="1">
+    <row r="16" spans="2:30" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="20"/>
       <c r="C16" s="40" t="s">
         <v>41</v>
@@ -1875,7 +1858,7 @@
       <c r="AC16" s="21"/>
       <c r="AD16" s="22"/>
     </row>
-    <row r="17" spans="2:31" s="1" customFormat="1">
+    <row r="17" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="20"/>
       <c r="C17" s="40" t="s">
         <v>42</v>
@@ -1910,7 +1893,7 @@
       <c r="AC17" s="21"/>
       <c r="AD17" s="22"/>
     </row>
-    <row r="18" spans="2:31" s="1" customFormat="1">
+    <row r="18" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="20"/>
       <c r="C18" s="40" t="s">
         <v>14</v>
@@ -1945,7 +1928,7 @@
       <c r="AC18" s="21"/>
       <c r="AD18" s="22"/>
     </row>
-    <row r="19" spans="2:31" s="1" customFormat="1">
+    <row r="19" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="20"/>
       <c r="C19" s="32" t="s">
         <v>29</v>
@@ -1981,17 +1964,17 @@
       <c r="AC19" s="21"/>
       <c r="AD19" s="22"/>
     </row>
-    <row r="20" spans="2:31" s="1" customFormat="1">
+    <row r="20" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B20" s="20"/>
       <c r="C20" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="D20" s="24">
+      <c r="D20" s="24" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(E23:E31,SerializationPath&amp;FileName,FileOverwrite,Serialize),"---")</f>
-        <v>9</v>
+        <v>#NUM!</v>
       </c>
       <c r="E20" s="33" t="str">
-        <f>_xll.ohRangeRetrieveError(D20)</f>
+        <f ca="1">_xll.ohRangeRetrieveError(D20)</f>
         <v/>
       </c>
       <c r="F20" s="21"/>
@@ -2020,7 +2003,7 @@
       <c r="AC20" s="21"/>
       <c r="AD20" s="22"/>
     </row>
-    <row r="21" spans="2:31" s="1" customFormat="1">
+    <row r="21" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B21" s="20"/>
       <c r="C21" s="21"/>
       <c r="D21" s="21"/>
@@ -2051,7 +2034,7 @@
       <c r="AC21" s="21"/>
       <c r="AD21" s="22"/>
     </row>
-    <row r="22" spans="2:31" s="1" customFormat="1">
+    <row r="22" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" s="20"/>
       <c r="C22" s="49"/>
       <c r="D22" s="46" t="s">
@@ -2085,7 +2068,7 @@
       <c r="AD22" s="21"/>
       <c r="AE22" s="22"/>
     </row>
-    <row r="23" spans="2:31" s="1" customFormat="1">
+    <row r="23" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B23" s="20"/>
       <c r="C23" s="46" t="s">
         <v>28</v>
@@ -2125,7 +2108,7 @@
       <c r="AD23" s="21"/>
       <c r="AE23" s="22"/>
     </row>
-    <row r="24" spans="2:31" s="1" customFormat="1">
+    <row r="24" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" s="20"/>
       <c r="C24" s="46" t="s">
         <v>43</v>
@@ -2181,7 +2164,7 @@
       <c r="AD24" s="21"/>
       <c r="AE24" s="22"/>
     </row>
-    <row r="25" spans="2:31" s="1" customFormat="1">
+    <row r="25" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B25" s="20"/>
       <c r="C25" s="46" t="s">
         <v>72</v>
@@ -2237,7 +2220,7 @@
       <c r="AD25" s="21"/>
       <c r="AE25" s="22"/>
     </row>
-    <row r="26" spans="2:31" s="1" customFormat="1">
+    <row r="26" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B26" s="20"/>
       <c r="C26" s="46" t="s">
         <v>70</v>
@@ -2293,7 +2276,7 @@
       <c r="AD26" s="21"/>
       <c r="AE26" s="22"/>
     </row>
-    <row r="27" spans="2:31" s="1" customFormat="1">
+    <row r="27" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B27" s="20"/>
       <c r="C27" s="46" t="s">
         <v>73</v>
@@ -2349,7 +2332,7 @@
       <c r="AD27" s="21"/>
       <c r="AE27" s="22"/>
     </row>
-    <row r="28" spans="2:31" s="1" customFormat="1">
+    <row r="28" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B28" s="20"/>
       <c r="C28" s="46" t="s">
         <v>56</v>
@@ -2411,7 +2394,7 @@
       <c r="AD28" s="21"/>
       <c r="AE28" s="22"/>
     </row>
-    <row r="29" spans="2:31" s="1" customFormat="1">
+    <row r="29" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B29" s="20"/>
       <c r="C29" s="46" t="s">
         <v>30</v>
@@ -2451,7 +2434,7 @@
       <c r="AD29" s="21"/>
       <c r="AE29" s="22"/>
     </row>
-    <row r="30" spans="2:31" s="1" customFormat="1" ht="11.25">
+    <row r="30" spans="2:31" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="B30" s="34"/>
       <c r="C30" s="46" t="s">
         <v>31</v>
@@ -2491,7 +2474,7 @@
       <c r="AD30" s="21"/>
       <c r="AE30" s="22"/>
     </row>
-    <row r="31" spans="2:31" s="1" customFormat="1">
+    <row r="31" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B31" s="20"/>
       <c r="C31" s="46" t="s">
         <v>32</v>
@@ -2531,7 +2514,7 @@
       <c r="AD31" s="21"/>
       <c r="AE31" s="22"/>
     </row>
-    <row r="32" spans="2:31" s="1" customFormat="1" ht="12" thickBot="1">
+    <row r="32" spans="2:31" s="1" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B32" s="13"/>
       <c r="C32" s="14"/>
       <c r="D32" s="14"/>
@@ -2563,7 +2546,7 @@
       <c r="AD32" s="14"/>
       <c r="AE32" s="15"/>
     </row>
-    <row r="33" s="1" customFormat="1" ht="11.25"/>
+    <row r="33" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="F3:G3"/>

--- a/QuantLibXL/Data/XLS/080_Bond/010_BondDataBase/EUR_Digital_XS0194140785.xlsx
+++ b/QuantLibXL/Data/XLS/080_Bond/010_BondDataBase/EUR_Digital_XS0194140785.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="75">
   <si>
     <t>General Settings</t>
   </si>
@@ -272,9 +272,6 @@
   </si>
   <si>
     <t>Backward</t>
-  </si>
-  <si>
-    <t>C:\Users\erik\junk\</t>
   </si>
 </sst>
 </file>
@@ -1195,8 +1192,9 @@
       <c r="C8" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="11" t="s">
-        <v>75</v>
+      <c r="D8" s="11" t="str">
+        <f ca="1">SUBSTITUTE(LEFT(CELL("filename",A1),FIND("[",CELL("filename",A1),1)-1),"\XLS\","\XML\")</f>
+        <v>C:\Users\erik\Documents\repos\quantlib_nando\QuantLibXL\Data\XML\080_Bond\010_BondDataBase\</v>
       </c>
       <c r="E8" s="10"/>
     </row>
@@ -1970,12 +1968,12 @@
         <v>26</v>
       </c>
       <c r="D20" s="24" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(E23:E31,SerializationPath&amp;FileName,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="E20" s="33" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(E23:E31,SerializationPath&amp;FileName,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="E20" s="33" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(D20)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="F20" s="21"/>
       <c r="G20" s="21"/>
